--- a/Saison24/Gabarit saison 24 - Questionnaire 2.xlsx
+++ b/Saison24/Gabarit saison 24 - Questionnaire 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\Génies\GEHStatCan\gehstatcan.github.io\Saison24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA231C4-BB13-4FF4-98A3-F431836577CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE99749-FAB3-4500-BEB6-72498DBA2555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auteur" sheetId="3" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <definedName name="ThèmesGroupe2">ListeThèmes!$D$3:$D$6</definedName>
     <definedName name="ThèmesGroupe3">ListeThèmes!$F$3:$F$6</definedName>
     <definedName name="ThèmesGroupe4">ListeThèmes!$H$3:$H$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Auteur!$B$2:$D$166</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Auteur!$B$2:$D$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -788,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1412,17 +1412,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1509,6 +1498,32 @@
       </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1522,7 +1537,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1783,52 +1798,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,35 +1900,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1885,155 +2041,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2964,7 +2989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2982,72 +3007,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="113"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="105"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="21"/>
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="105"/>
+      <c r="C3" s="103"/>
       <c r="D3" s="22"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="22"/>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="105"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="22"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="22"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="105"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="22"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="105"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="23"/>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
@@ -3072,18 +3097,18 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="64"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
       <c r="F13" s="19">
         <v>7</v>
       </c>
@@ -3137,11 +3162,11 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
@@ -3194,9 +3219,9 @@
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
@@ -3224,7 +3249,7 @@
     </row>
     <row r="26" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="85" t="s">
         <v>116</v>
       </c>
       <c r="D26" s="64"/>
@@ -3292,9 +3317,9 @@
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
@@ -3322,7 +3347,7 @@
     </row>
     <row r="35" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="85" t="s">
         <v>152</v>
       </c>
       <c r="D35" s="64"/>
@@ -3417,7 +3442,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="85" t="s">
         <v>151</v>
       </c>
       <c r="D44" s="64"/>
@@ -3515,7 +3540,7 @@
     </row>
     <row r="53" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="85" t="s">
         <v>154</v>
       </c>
       <c r="D53" s="64"/>
@@ -3583,9 +3608,9 @@
       <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
     </row>
@@ -3602,10 +3627,10 @@
       <c r="F60" s="24">
         <v>1</v>
       </c>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="107"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="108"/>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="34"/>
@@ -3615,14 +3640,14 @@
       <c r="D61" s="68"/>
       <c r="E61" s="19"/>
       <c r="F61" s="24"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="107"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="108"/>
     </row>
     <row r="62" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="32"/>
-      <c r="C62" s="86" t="s">
+      <c r="C62" s="85" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="64"/>
@@ -3742,9 +3767,9 @@
       <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="108"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="110"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
     </row>
@@ -3772,7 +3797,7 @@
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="32"/>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="85" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="52"/>
@@ -3840,9 +3865,9 @@
       <c r="F80" s="19"/>
     </row>
     <row r="81" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="19"/>
       <c r="F81" s="24"/>
       <c r="G81" s="12"/>
@@ -3871,7 +3896,7 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="85" t="s">
         <v>151</v>
       </c>
       <c r="D84" s="52"/>
@@ -3939,9 +3964,9 @@
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="101"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
     </row>
@@ -3970,7 +3995,7 @@
     </row>
     <row r="93" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32"/>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="85" t="s">
         <v>112</v>
       </c>
       <c r="D93" s="64"/>
@@ -4014,9 +4039,9 @@
       <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="106"/>
+      <c r="B97" s="114"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="119"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
     </row>
@@ -4045,7 +4070,7 @@
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="C100" s="86" t="s">
+      <c r="C100" s="85" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="64"/>
@@ -4101,9 +4126,9 @@
       <c r="F104" s="19"/>
     </row>
     <row r="105" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="114"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
     </row>
@@ -4131,7 +4156,7 @@
     </row>
     <row r="108" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="C108" s="86" t="s">
+      <c r="C108" s="85" t="s">
         <v>116</v>
       </c>
       <c r="D108" s="52"/>
@@ -4199,9 +4224,9 @@
       <c r="F113" s="19"/>
     </row>
     <row r="114" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="101"/>
-      <c r="C114" s="101"/>
-      <c r="D114" s="101"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="115"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
     </row>
@@ -4231,7 +4256,7 @@
     </row>
     <row r="117" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="85" t="s">
         <v>116</v>
       </c>
       <c r="D117" s="52"/>
@@ -4299,9 +4324,9 @@
       <c r="F122" s="19"/>
     </row>
     <row r="123" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="100"/>
-      <c r="C123" s="100"/>
-      <c r="D123" s="100"/>
+      <c r="B123" s="109"/>
+      <c r="C123" s="109"/>
+      <c r="D123" s="109"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
     </row>
@@ -4329,7 +4354,7 @@
     </row>
     <row r="126" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="32"/>
-      <c r="C126" s="86" t="s">
+      <c r="C126" s="85" t="s">
         <v>157</v>
       </c>
       <c r="D126" s="64"/>
@@ -4345,22 +4370,17 @@
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
     </row>
-    <row r="128" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="163"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="164"/>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="97"/>
+      <c r="C128" s="168"/>
+      <c r="D128" s="98"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B129" s="18">
-        <v>1</v>
-      </c>
-      <c r="C129" s="39"/>
-      <c r="D129" s="57"/>
+    <row r="129" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="169"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="98"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
     </row>
@@ -4368,11 +4388,11 @@
       <c r="A130" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="13">
-        <v>2</v>
-      </c>
-      <c r="C130" s="28"/>
-      <c r="D130" s="48"/>
+      <c r="B130" s="18">
+        <v>1</v>
+      </c>
+      <c r="C130" s="39"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
     </row>
@@ -4381,98 +4401,93 @@
         <v>115</v>
       </c>
       <c r="B131" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" s="28"/>
       <c r="D131" s="48"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
     </row>
-    <row r="132" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="14">
-        <v>4</v>
-      </c>
-      <c r="C132" s="40"/>
-      <c r="D132" s="49"/>
+      <c r="B132" s="13">
+        <v>3</v>
+      </c>
+      <c r="C132" s="28"/>
+      <c r="D132" s="48"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B133" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="C133" s="39"/>
-      <c r="D133" s="57"/>
+    <row r="133" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="14">
+        <v>4</v>
+      </c>
+      <c r="C133" s="40"/>
+      <c r="D133" s="49"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="166" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" s="28"/>
-      <c r="D134" s="48"/>
+      <c r="B134" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="39"/>
+      <c r="D134" s="57"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B135" s="166" t="s">
-        <v>94</v>
+      <c r="B135" s="100" t="s">
+        <v>159</v>
       </c>
       <c r="C135" s="28"/>
       <c r="D135" s="48"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
     </row>
-    <row r="136" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="167" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" s="26"/>
-      <c r="D136" s="49"/>
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B136" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="28"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
     </row>
-    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B137" s="163"/>
-      <c r="C137" s="168" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" s="164"/>
+    <row r="137" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
     </row>
-    <row r="138" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="81"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="84"/>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B138" s="97"/>
+      <c r="C138" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="D138" s="98"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B139" s="18">
-        <v>1</v>
-      </c>
-      <c r="C139" s="39"/>
-      <c r="D139" s="57"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="98"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
     </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B140" s="13">
-        <v>2</v>
-      </c>
-      <c r="C140" s="28"/>
-      <c r="D140" s="48"/>
+    <row r="140" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="169"/>
+      <c r="C140" s="170"/>
+      <c r="D140" s="171"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
     </row>
@@ -4480,121 +4495,121 @@
       <c r="A141" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="13">
-        <v>3</v>
-      </c>
-      <c r="C141" s="28"/>
-      <c r="D141" s="48"/>
+      <c r="B141" s="18">
+        <v>1</v>
+      </c>
+      <c r="C141" s="39"/>
+      <c r="D141" s="57"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
     </row>
-    <row r="142" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B142" s="14">
-        <v>4</v>
-      </c>
-      <c r="C142" s="40"/>
-      <c r="D142" s="49"/>
+      <c r="B142" s="13">
+        <v>2</v>
+      </c>
+      <c r="C142" s="28"/>
+      <c r="D142" s="48"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B143" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="C143" s="39"/>
-      <c r="D143" s="57"/>
+      <c r="A143" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143" s="13">
+        <v>3</v>
+      </c>
+      <c r="C143" s="28"/>
+      <c r="D143" s="48"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B144" s="166" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" s="28"/>
-      <c r="D144" s="48"/>
+    <row r="144" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" s="14">
+        <v>4</v>
+      </c>
+      <c r="C144" s="40"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B145" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="48"/>
+      <c r="B145" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="39"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
     </row>
-    <row r="146" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="167" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="49"/>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B146" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="28"/>
+      <c r="D146" s="48"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
     </row>
-    <row r="147" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="71"/>
-      <c r="C147" s="71"/>
-      <c r="D147" s="72"/>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B147" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147" s="28"/>
+      <c r="D147" s="48"/>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
     </row>
-    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="31"/>
-      <c r="C148" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D148" s="51" t="s">
-        <v>65</v>
-      </c>
+    <row r="148" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="26"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="19"/>
-      <c r="F148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="34"/>
-      <c r="C149" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D149" s="68"/>
+      <c r="F148" s="19"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="71"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="72"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
     </row>
-    <row r="150" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="32"/>
-      <c r="C150" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="64"/>
+    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="31"/>
+      <c r="C150" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" s="51" t="s">
+        <v>65</v>
+      </c>
       <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" s="18">
-        <v>1</v>
-      </c>
-      <c r="C151" s="39"/>
-      <c r="D151" s="57"/>
+      <c r="F150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="34"/>
+      <c r="C151" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" s="68"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B152" s="13">
-        <v>2</v>
-      </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="53"/>
+    <row r="152" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="32"/>
+      <c r="C152" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D152" s="64"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
     </row>
@@ -4602,11 +4617,11 @@
       <c r="A153" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B153" s="13">
-        <v>3</v>
-      </c>
-      <c r="C153" s="28"/>
-      <c r="D153" s="53"/>
+      <c r="B153" s="18">
+        <v>1</v>
+      </c>
+      <c r="C153" s="39"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
     </row>
@@ -4615,7 +4630,7 @@
         <v>114</v>
       </c>
       <c r="B154" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C154" s="28"/>
       <c r="D154" s="53"/>
@@ -4627,7 +4642,7 @@
         <v>114</v>
       </c>
       <c r="B155" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C155" s="28"/>
       <c r="D155" s="53"/>
@@ -4639,7 +4654,7 @@
         <v>114</v>
       </c>
       <c r="B156" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C156" s="28"/>
       <c r="D156" s="53"/>
@@ -4651,7 +4666,7 @@
         <v>114</v>
       </c>
       <c r="B157" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" s="28"/>
       <c r="D157" s="53"/>
@@ -4663,7 +4678,7 @@
         <v>114</v>
       </c>
       <c r="B158" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" s="28"/>
       <c r="D158" s="53"/>
@@ -4675,90 +4690,104 @@
         <v>114</v>
       </c>
       <c r="B159" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C159" s="28"/>
       <c r="D159" s="53"/>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
     </row>
-    <row r="160" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B160" s="14">
-        <v>10</v>
-      </c>
-      <c r="C160" s="40"/>
-      <c r="D160" s="58"/>
+      <c r="B160" s="13">
+        <v>8</v>
+      </c>
+      <c r="C160" s="28"/>
+      <c r="D160" s="53"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
     </row>
-    <row r="161" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="99"/>
-      <c r="C161" s="99"/>
-      <c r="D161" s="99"/>
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B161" s="13">
+        <v>9</v>
+      </c>
+      <c r="C161" s="28"/>
+      <c r="D161" s="53"/>
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
     </row>
-    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="31"/>
-      <c r="C162" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D162" s="51" t="s">
-        <v>44</v>
-      </c>
+    <row r="162" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162" s="14">
+        <v>10</v>
+      </c>
+      <c r="C162" s="40"/>
+      <c r="D162" s="58"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="34"/>
-      <c r="C163" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D163" s="68"/>
+      <c r="F162" s="19"/>
+    </row>
+    <row r="163" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="114"/>
+      <c r="C163" s="114"/>
+      <c r="D163" s="114"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
     </row>
-    <row r="164" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="32"/>
-      <c r="C164" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="D164" s="64"/>
+    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="31"/>
+      <c r="C164" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" s="51" t="s">
+        <v>44</v>
+      </c>
       <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B165" s="18">
-        <v>1</v>
-      </c>
-      <c r="C165" s="39"/>
-      <c r="D165" s="57"/>
+      <c r="F164" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="34"/>
+      <c r="C165" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" s="68"/>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="32"/>
+      <c r="C166" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D166" s="64"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B167" s="18">
+        <v>1</v>
+      </c>
+      <c r="C167" s="39"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="26">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="G61:H61"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B163:D163"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="B114:D114"/>
     <mergeCell ref="B105:D105"/>
@@ -4773,6 +4802,16 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -4782,7 +4821,7 @@
     <brk id="32" min="1" max="3" man="1"/>
     <brk id="59" min="1" max="3" man="1"/>
     <brk id="81" min="1" max="3" man="1"/>
-    <brk id="147" min="1" max="3" man="1"/>
+    <brk id="149" min="1" max="3" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5198,7 +5237,7 @@
       </c>
       <c r="D17" t="str">
         <f ca="1">IF(INDIRECT(Adresses!E88)&lt;&gt;0,INDIRECT(Adresses!E88),"")</f>
-        <v/>
+        <v>Divers</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7241,12 +7280,12 @@
         <v>14</v>
       </c>
       <c r="C90" s="9">
-        <f>Auteur!B151</f>
+        <f>Auteur!B153</f>
         <v>1</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!G78)</f>
-        <v>0</v>
+        <v>Sous-thème 2 (doit être précis et non relié au sous-thème 1)</v>
       </c>
       <c r="E90" s="9">
         <f ca="1">INDIRECT(Adresses!H78)</f>
@@ -7271,7 +7310,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="9">
-        <f>Auteur!B152</f>
+        <f>Auteur!B154</f>
         <v>2</v>
       </c>
       <c r="D91" s="9">
@@ -7301,7 +7340,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="9">
-        <f>Auteur!B153</f>
+        <f>Auteur!B155</f>
         <v>3</v>
       </c>
       <c r="D92" s="9">
@@ -7331,7 +7370,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="9">
-        <f>Auteur!B154</f>
+        <f>Auteur!B156</f>
         <v>4</v>
       </c>
       <c r="D93" s="9">
@@ -7361,7 +7400,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="9">
-        <f>Auteur!B155</f>
+        <f>Auteur!B157</f>
         <v>5</v>
       </c>
       <c r="D94" s="9">
@@ -7391,7 +7430,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="9">
-        <f>Auteur!B156</f>
+        <f>Auteur!B158</f>
         <v>6</v>
       </c>
       <c r="D95" s="9">
@@ -7421,7 +7460,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="9">
-        <f>Auteur!B157</f>
+        <f>Auteur!B159</f>
         <v>7</v>
       </c>
       <c r="D96" s="9">
@@ -7451,7 +7490,7 @@
         <v>14</v>
       </c>
       <c r="C97" s="9">
-        <f>Auteur!B158</f>
+        <f>Auteur!B160</f>
         <v>8</v>
       </c>
       <c r="D97" s="9">
@@ -7481,7 +7520,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="9">
-        <f>Auteur!B159</f>
+        <f>Auteur!B161</f>
         <v>9</v>
       </c>
       <c r="D98" s="9">
@@ -7511,7 +7550,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="9">
-        <f>Auteur!B160</f>
+        <f>Auteur!B162</f>
         <v>10</v>
       </c>
       <c r="D99" s="9">
@@ -7532,7 +7571,7 @@
       </c>
       <c r="IV99" s="10"/>
     </row>
-    <row r="100" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7541,12 +7580,12 @@
         <v>15</v>
       </c>
       <c r="C100" s="9">
-        <f>Auteur!B165</f>
+        <f>Auteur!B167</f>
         <v>1</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E100" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7561,7 +7600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7573,9 +7612,9 @@
         <f>C100+1</f>
         <v>2</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E101" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7590,7 +7629,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7602,9 +7641,9 @@
         <f t="shared" ref="C102:C107" si="4">C101+1</f>
         <v>3</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E102" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7619,7 +7658,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7631,9 +7670,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E103" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7648,7 +7687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7660,9 +7699,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E104" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7677,7 +7716,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7689,9 +7728,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E105" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7706,7 +7745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7718,9 +7757,9 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E106" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7735,7 +7774,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>Auteur!$D$2</f>
         <v>0</v>
@@ -7747,9 +7786,9 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="9" t="str">
         <f ca="1">INDIRECT(Adresses!$G$88)</f>
-        <v>0</v>
+        <v>Viser des questions courtes couvrant un maximum de thèmes différents.</v>
       </c>
       <c r="E107" s="9">
         <f ca="1">INDIRECT(Adresses!$H$88)</f>
@@ -7791,113 +7830,113 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117">
+      <c r="B2" s="163"/>
+      <c r="C2" s="164">
         <v>3</v>
       </c>
-      <c r="D2" s="118"/>
+      <c r="D2" s="165"/>
       <c r="G2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="157"/>
       <c r="G3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="122"/>
+      <c r="D4" s="157"/>
       <c r="G4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="122"/>
+      <c r="D5" s="157"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="157"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="143"/>
+      <c r="A12" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="131"/>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
@@ -7906,34 +7945,34 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="134"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="137"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="138">
+      <c r="B17" s="128">
         <f ca="1">'Vers BD'!D22</f>
         <v>0</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="2">
         <f ca="1">'Vers BD'!E22</f>
         <v>0</v>
@@ -7943,10 +7982,10 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
@@ -7955,10 +7994,10 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
@@ -7967,30 +8006,30 @@
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="139"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="139"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
@@ -7999,10 +8038,10 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="139"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
@@ -8011,10 +8050,10 @@
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="139"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
@@ -8023,62 +8062,62 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
     </row>
     <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="149" t="s">
+      <c r="B29" s="131"/>
+      <c r="C29" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="151" t="s">
+      <c r="D29" s="136" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="152"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="137"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="139"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
@@ -8087,10 +8126,10 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="139"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
@@ -8099,10 +8138,10 @@
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="139"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
@@ -8111,10 +8150,10 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="139"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
@@ -8123,48 +8162,48 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="139"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="149" t="s">
+      <c r="B37" s="131"/>
+      <c r="C37" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="151" t="s">
+      <c r="D37" s="136" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="152"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="137"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="139"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="2" t="s">
         <v>35</v>
       </c>
@@ -8173,10 +8212,10 @@
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="139"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
@@ -8185,10 +8224,10 @@
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="139"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8197,50 +8236,66 @@
       <c r="A42" s="1">
         <v>4</v>
       </c>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="139"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="153">
+      <c r="A43" s="120">
         <v>5</v>
       </c>
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="156"/>
-      <c r="D43" s="159" t="s">
+      <c r="C43" s="123"/>
+      <c r="D43" s="126" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="154"/>
-      <c r="B44" s="157" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="160"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:D16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
@@ -8251,36 +8306,20 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:D16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8317,22 +8356,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="161" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="161" t="s">
+      <c r="D2" s="167"/>
+      <c r="E2" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="161" t="s">
+      <c r="F2" s="167"/>
+      <c r="G2" s="166" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="162"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="74">
@@ -8364,7 +8403,7 @@
       <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="74">
@@ -8390,7 +8429,7 @@
       <c r="A5" s="74">
         <v>3</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="74">
@@ -8416,7 +8455,7 @@
       <c r="A6" s="74">
         <v>4</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="74">
@@ -8442,7 +8481,7 @@
       <c r="A7" s="74">
         <v>5</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="74"/>
@@ -8456,7 +8495,7 @@
       <c r="A8" s="74">
         <v>6</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>137</v>
       </c>
       <c r="C8" s="74"/>
@@ -8470,7 +8509,7 @@
       <c r="A9" s="74">
         <v>7</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="74"/>
@@ -8484,7 +8523,7 @@
       <c r="A10" s="74">
         <v>8</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="74"/>
@@ -8498,7 +8537,7 @@
       <c r="A11" s="74">
         <v>9</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="74"/>
@@ -8509,44 +8548,44 @@
       <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96">
+      <c r="A12" s="95">
         <v>10</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="77"/>
-      <c r="E12" s="96"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="77"/>
-      <c r="G12" s="96"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="77"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="88" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="89" t="s">
         <v>44</v>
       </c>
       <c r="L19" t="s">
@@ -8557,16 +8596,16 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="89" t="s">
         <v>66</v>
       </c>
       <c r="L20" t="s">
@@ -8577,16 +8616,16 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="89" t="s">
         <v>64</v>
       </c>
       <c r="L21" t="s">
@@ -8597,16 +8636,16 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="89"/>
       <c r="L22" t="s">
         <v>67</v>
       </c>
@@ -8615,14 +8654,14 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
       <c r="L23" t="s">
         <v>141</v>
       </c>
@@ -8631,14 +8670,14 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
       <c r="L24" t="s">
         <v>139</v>
       </c>
@@ -8647,12 +8686,12 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
       <c r="L25" t="s">
         <v>145</v>
       </c>
@@ -8661,12 +8700,12 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
       <c r="L26" t="s">
         <v>63</v>
       </c>
@@ -8675,12 +8714,12 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
       <c r="L27" t="s">
         <v>143</v>
       </c>
@@ -8689,12 +8728,12 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
       <c r="L28" t="s">
         <v>68</v>
       </c>
@@ -8703,12 +8742,12 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="L29" t="s">
         <v>142</v>
       </c>
@@ -8717,12 +8756,12 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
       <c r="L30" t="s">
         <v>44</v>
       </c>
@@ -8731,12 +8770,12 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="L31" t="s">
         <v>66</v>
       </c>
@@ -8745,12 +8784,12 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="L32" t="s">
         <v>64</v>
       </c>
@@ -8759,44 +8798,44 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="89" t="s">
+      <c r="E34" s="88" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="89" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="89" t="s">
         <v>137</v>
       </c>
       <c r="L36" s="12" t="s">
@@ -8807,16 +8846,16 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="89" t="s">
         <v>67</v>
       </c>
       <c r="L37" t="s">
@@ -8827,12 +8866,12 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="89"/>
       <c r="L38" t="s">
         <v>136</v>
       </c>
@@ -8841,12 +8880,12 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="90"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="89"/>
       <c r="L39" t="s">
         <v>67</v>
       </c>
@@ -8855,12 +8894,12 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="89"/>
       <c r="L40" t="s">
         <v>139</v>
       </c>
@@ -8869,12 +8908,12 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="90"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="89"/>
       <c r="L41" t="s">
         <v>63</v>
       </c>
@@ -8883,12 +8922,12 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="90"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="89"/>
       <c r="L42" t="s">
         <v>68</v>
       </c>
@@ -8897,11 +8936,11 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="90"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="89"/>
       <c r="L43" t="s">
         <v>144</v>
       </c>
@@ -10359,7 +10398,7 @@
         <f>A69+1</f>
         <v>13</v>
       </c>
-      <c r="F73" s="87">
+      <c r="F73" s="86">
         <f>F72+1</f>
         <v>127</v>
       </c>
@@ -10376,7 +10415,7 @@
       <c r="A74" s="7">
         <v>13</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="86">
         <f>F73+1</f>
         <v>128</v>
       </c>
@@ -10393,7 +10432,7 @@
       <c r="A75" s="7">
         <v>13</v>
       </c>
-      <c r="F75" s="87">
+      <c r="F75" s="86">
         <v>131</v>
       </c>
       <c r="G75" t="str">
@@ -10409,7 +10448,7 @@
       <c r="A76" s="7">
         <v>13</v>
       </c>
-      <c r="F76" s="87">
+      <c r="F76" s="86">
         <f>F75+1</f>
         <v>132</v>
       </c>
@@ -10426,7 +10465,7 @@
       <c r="A77" s="7">
         <v>13</v>
       </c>
-      <c r="F77" s="87">
+      <c r="F77" s="86">
         <f>F76+1</f>
         <v>133</v>
       </c>
